--- a/CashFlow/STZ_cashflow.xlsx
+++ b/CashFlow/STZ_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5329000000.0</v>
+        <v>193700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5412000000.0</v>
+        <v>180200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3807800000.0</v>
+        <v>-49200000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2622800000.0</v>
+        <v>69400000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1239500000.0</v>
+        <v>-29500000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-68700000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-95700000.0</v>
+        <v>2349000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>28000000.0</v>
+        <v>2447000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>38800000.0</v>
+        <v>1755900000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-89900000.0</v>
+        <v>1121300000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-138900000.0</v>
+        <v>537900000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-75900000.0</v>
